--- a/tests/fixtures/verification/cases/stochastic/00021/00021-wc_lang.xlsx
+++ b/tests/fixtures/verification/cases/stochastic/00021/00021-wc_lang.xlsx
@@ -2872,7 +2872,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observable' name='Observables' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observable' name='Observables' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3090,7 +3090,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Function' name='Functions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Function' name='Functions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3306,7 +3306,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reaction' name='Reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reaction' name='Reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3685,7 +3685,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='RateLaw' name='Rate laws' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='RateLaw' name='Rate laws' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3996,7 +3996,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjective' name='dFBA objectives' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjective' name='dFBA objectives' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4267,7 +4267,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjReaction' name='dFBA objective reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjReaction' name='dFBA objective reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4503,7 +4503,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjSpecies' name='dFBA objective species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjSpecies' name='dFBA objective species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4758,7 +4758,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Parameter' name='Parameters' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Parameter' name='Parameters' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5048,7 +5048,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='StopCondition' name='Stop conditions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='StopCondition' name='Stop conditions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5266,7 +5266,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observation' name='Observations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observation' name='Observations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5798,7 +5798,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Model' name='Models' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Model' name='Models' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6120,7 +6120,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='ObservationSet' name='Observation sets' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='ObservationSet' name='Observation sets' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6285,7 +6285,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Conclusion' name='Conclusions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Conclusion' name='Conclusions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6621,7 +6621,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reference' name='References' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reference' name='References' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7018,7 +7018,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Author' name='Authors' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Author' name='Authors' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7304,7 +7304,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Change' name='Changes' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Change' name='Changes' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7677,7 +7677,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Taxon' name='Taxons' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Taxon' name='Taxons' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -7850,7 +7850,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Environment' name='Environments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Environment' name='Environments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -8029,7 +8029,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Submodel' name='Submodels' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Submodel' name='Submodels' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -8240,7 +8240,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Compartment' name='Compartments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Compartment' name='Compartments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -8736,7 +8736,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='SpeciesType' name='Species types' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='SpeciesType' name='Species types' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9071,7 +9071,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Species' name='Species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Species' name='Species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9318,7 +9318,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DistributionInitConcentration' name='Init species concentrations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DistributionInitConcentration' name='Init species concentrations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
